--- a/biology/Virologie/Peribunyaviridae/Peribunyaviridae.xlsx
+++ b/biology/Virologie/Peribunyaviridae/Peribunyaviridae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les Peribunyaviridae sont une famille de virus[2] de l'ordre des Bunyavirales[1]. Elle tient en partie son nom de la ville de Bunyamwera en Ouganda où la première espèce de cette famille a été découverte[3].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les Peribunyaviridae sont une famille de virus de l'ordre des Bunyavirales. Elle tient en partie son nom de la ville de Bunyamwera en Ouganda où la première espèce de cette famille a été découverte.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Taxonomie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>La famille contient quatre genres[1] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>La famille contient quatre genres :
 Herbevirus
 Orthobunyavirus
 Pacuvirus
@@ -545,9 +559,11 @@
           <t>Virus non classés</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Plusieurs virus de cette famille demeurent non assignés à un genre (incertae sedis). C'est le cas du virus Akhtuba[3], du virus Fulton[3], du virus Khurdun[3], du virus Lakamha[3], du largemouth bass bunyavirus[3] (nommé d'après l'achigan à grande bouche), du Eriocheir sinensis bunya-like virus (nommé d'après le crabe chinois) et du Wenling crustacean virus 9.
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Plusieurs virus de cette famille demeurent non assignés à un genre (incertae sedis). C'est le cas du virus Akhtuba, du virus Fulton, du virus Khurdun, du virus Lakamha, du largemouth bass bunyavirus (nommé d'après l'achigan à grande bouche), du Eriocheir sinensis bunya-like virus (nommé d'après le crabe chinois) et du Wenling crustacean virus 9.
 </t>
         </is>
       </c>
